--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Liste commandes client.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Liste commandes client.xlsx
@@ -15,12 +15,11 @@
     <sheet name="client" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>total_ttc_Cde</t>
   </si>
@@ -43,9 +42,6 @@
     <t>Facturée</t>
   </si>
   <si>
-    <t>Liste des commandes pour le client Rasmussen</t>
-  </si>
-  <si>
     <t>Résultat</t>
   </si>
   <si>
@@ -55,7 +51,16 @@
     <t>dateCommande</t>
   </si>
   <si>
-    <t>select dateCommande, refClient, total_ttc_Cde, etat from commande,ligne_commande,client where commande.id_client=client.id_client and ligne_commande.id_commande=commande.id_commande and nomClient='Rasmussen' group by commande.id_commande;</t>
+    <t>Liste des commandes pour un client (Rasmussen)</t>
+  </si>
+  <si>
+    <t>Expédiée</t>
+  </si>
+  <si>
+    <t>numeroCommande</t>
+  </si>
+  <si>
+    <t>select numeroCommande, dateCommande, refClient, total_ttc_Cde, etat from commande,ligne_commande,client where commande.id_client=client.id_client and ligne_commande.id_commande=commande.id_commande and nomClient='Rasmussen' group by commande.id_commande;</t>
   </si>
 </sst>
 </file>
@@ -893,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,107 +911,125 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1478</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44129</v>
+      </c>
+      <c r="C10" s="4">
+        <v>109</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1480</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44537</v>
+      </c>
+      <c r="C11" s="4">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1487</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43858</v>
+      </c>
+      <c r="C12" s="4">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>44129</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1495</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44086</v>
+      </c>
+      <c r="C13" s="4">
         <v>109</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>44537</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1499</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44243</v>
+      </c>
+      <c r="C14" s="4">
         <v>109</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43858</v>
-      </c>
-      <c r="B12" s="4">
-        <v>109</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>44086</v>
-      </c>
-      <c r="B13" s="4">
-        <v>109</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>44243</v>
-      </c>
-      <c r="B14" s="4">
-        <v>109</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
